--- a/BackTest/2020-01-20 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-20 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,10 +880,14 @@
         <v>-2931523.9181</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.823</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -916,8 +920,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +959,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +998,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1037,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1076,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1115,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1154,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1193,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1232,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1271,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1310,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1349,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1388,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1427,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1466,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1502,19 @@
         <v>-2625325.0656</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.826</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1543,19 @@
         <v>-2732444.5166</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.827</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1587,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1623,19 @@
         <v>-2597541.5901</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.822</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1664,19 @@
         <v>-2575275.0161</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1705,19 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1746,19 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1787,19 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1828,19 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1869,19 @@
         <v>-2481976.0531</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1910,19 @@
         <v>-2484956.9051</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1951,19 @@
         <v>-2441288.2541</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1995,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2034,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2073,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2109,19 @@
         <v>-2266037.801099999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.827</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2153,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2189,19 @@
         <v>-2186937.241099999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.826</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2233,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2269,19 @@
         <v>-2115638.001099999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2310,19 @@
         <v>-2228511.596099999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2351,19 @@
         <v>-2090462.592099999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2392,19 @@
         <v>-2289374.956099999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2433,19 @@
         <v>-2281631.238099999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2474,19 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2515,19 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,7 +2556,7 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>3.823</v>
@@ -2274,7 +2564,11 @@
       <c r="J57" t="n">
         <v>3.823</v>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2597,7 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>3.823</v>
@@ -2313,7 +2607,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2344,7 +2638,7 @@
         <v>-2232699.20277855</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>3.823</v>
@@ -2354,7 +2648,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2385,11 +2679,9 @@
         <v>-2234387.91877855</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3.879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>3.823</v>
       </c>
@@ -7535,7 +7827,7 @@
         <v>-1961626.501700411</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
@@ -7691,7 +7983,7 @@
         <v>-1909600.629500411</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
@@ -7769,7 +8061,7 @@
         <v>-1584822.400099999</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
@@ -7847,7 +8139,7 @@
         <v>-1584822.400099999</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
@@ -8237,7 +8529,7 @@
         <v>-1625126.286899999</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
@@ -8276,7 +8568,7 @@
         <v>-1653801.320899999</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
@@ -8315,7 +8607,7 @@
         <v>-1653801.320899999</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
@@ -10538,9 +10830,11 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J269" t="n">
         <v>3.823</v>
       </c>
@@ -10577,7 +10871,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>3.823</v>
@@ -10618,7 +10912,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>3.823</v>
@@ -10659,7 +10953,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>3.823</v>
@@ -10700,7 +10994,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>3.823</v>
@@ -10741,7 +11035,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>3.823</v>
@@ -10782,7 +11076,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>3.823</v>
@@ -10823,7 +11117,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>3.823</v>
@@ -10864,7 +11158,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>3.823</v>
@@ -10905,7 +11199,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>3.823</v>
@@ -10946,7 +11240,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>3.823</v>
@@ -10987,7 +11281,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>3.823</v>
@@ -11028,7 +11322,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>3.823</v>
@@ -11069,7 +11363,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>3.823</v>
@@ -11110,7 +11404,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>3.823</v>
@@ -11151,7 +11445,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>3.823</v>
@@ -11192,7 +11486,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>3.823</v>
@@ -11233,7 +11527,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>3.823</v>
@@ -11274,7 +11568,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>3.823</v>
@@ -11315,7 +11609,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>3.823</v>
@@ -11356,7 +11650,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>3.823</v>
@@ -11397,7 +11691,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>3.823</v>
@@ -11438,7 +11732,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>3.823</v>
@@ -11479,7 +11773,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>3.823</v>
@@ -11520,7 +11814,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>3.823</v>
@@ -11561,7 +11855,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>3.823</v>
@@ -11602,9 +11896,11 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J295" t="n">
         <v>3.823</v>
       </c>
@@ -11641,7 +11937,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>3.823</v>
@@ -11682,7 +11978,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>3.823</v>
@@ -11723,7 +12019,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>3.823</v>
@@ -11764,9 +12060,11 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J299" t="n">
         <v>3.823</v>
       </c>
@@ -11803,7 +12101,7 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>3.823</v>
@@ -11844,9 +12142,11 @@
         <v>-860781.3212999989</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J301" t="n">
         <v>3.823</v>
       </c>
@@ -11883,7 +12183,7 @@
         <v>-1088663.389299999</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>3.824</v>
@@ -11924,7 +12224,7 @@
         <v>-1088663.389299999</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>3.823</v>
@@ -11965,7 +12265,7 @@
         <v>-994510.974299999</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>3.823</v>
@@ -12006,7 +12306,7 @@
         <v>-1335888.129299999</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>3.824</v>
@@ -12047,7 +12347,7 @@
         <v>-890652.453299999</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>3.823</v>
@@ -12088,7 +12388,7 @@
         <v>-890652.453299999</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>3.824</v>
@@ -12129,7 +12429,7 @@
         <v>-890652.453299999</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>3.824</v>
@@ -12170,7 +12470,7 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>3.824</v>
@@ -12211,7 +12511,7 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>3.823</v>
@@ -12252,7 +12552,7 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>3.823</v>
@@ -12293,7 +12593,7 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>3.823</v>
@@ -12334,7 +12634,7 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>3.823</v>
@@ -12375,7 +12675,7 @@
         <v>-1035865.012299999</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>3.823</v>
@@ -12416,7 +12716,7 @@
         <v>-1035865.012299999</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>3.824</v>
@@ -12457,7 +12757,7 @@
         <v>-1035865.012299999</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>3.824</v>
@@ -12498,7 +12798,7 @@
         <v>-1203288.160299999</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>3.824</v>
@@ -12539,7 +12839,7 @@
         <v>-1169668.915299999</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>3.822</v>
@@ -12580,7 +12880,7 @@
         <v>-1169668.915299999</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>3.823</v>
@@ -12621,7 +12921,7 @@
         <v>-962980.748299999</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>3.823</v>
@@ -12662,7 +12962,7 @@
         <v>-972136.968299999</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>3.824</v>
@@ -12703,7 +13003,7 @@
         <v>-972136.968299999</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>3.823</v>
@@ -12744,7 +13044,7 @@
         <v>-835268.6312999991</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>3.823</v>
@@ -12785,7 +13085,7 @@
         <v>-835268.6312999991</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>3.824</v>
@@ -12826,7 +13126,7 @@
         <v>-879208.6972999991</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>3.824</v>
@@ -12867,7 +13167,7 @@
         <v>-1057042.874799999</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>3.823</v>
@@ -12908,7 +13208,7 @@
         <v>-1057042.874799999</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>3.822</v>
@@ -12949,7 +13249,7 @@
         <v>-537665.209020301</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>3.822</v>
@@ -13146,11 +13446,9 @@
         <v>-301833.053020301</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="n">
-        <v>3.833</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
         <v>3.823</v>
       </c>
@@ -13265,11 +13563,9 @@
         <v>-301964.053020301</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="n">
-        <v>3.833</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
         <v>3.823</v>
       </c>
@@ -16543,7 +16839,7 @@
         <v>390731.7818036602</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
@@ -16621,7 +16917,7 @@
         <v>440567.3748036601</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
@@ -16660,7 +16956,7 @@
         <v>440567.3748036601</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
@@ -16699,7 +16995,7 @@
         <v>440567.3748036601</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
@@ -16855,7 +17151,7 @@
         <v>182792.2358036601</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
@@ -16863,11 +17159,11 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L428" t="n">
-        <v>1.010956055453832</v>
+        <v>1</v>
       </c>
       <c r="M428" t="inlineStr"/>
     </row>
@@ -16897,8 +17193,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16930,8 +17232,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16963,8 +17271,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16996,8 +17310,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17029,8 +17349,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17062,8 +17388,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17095,8 +17427,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17128,8 +17466,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17161,8 +17505,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17194,8 +17544,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17227,8 +17583,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17260,8 +17622,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17293,8 +17661,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17326,8 +17700,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17359,8 +17739,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17392,8 +17778,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17425,8 +17817,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17458,8 +17856,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17491,8 +17895,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17524,8 +17934,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17557,8 +17973,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17590,8 +18012,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17623,8 +18051,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17656,8 +18090,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17689,8 +18129,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17722,8 +18168,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17755,8 +18207,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17788,8 +18246,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17821,8 +18285,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17854,8 +18324,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17887,8 +18363,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17920,8 +18402,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17953,8 +18441,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17986,8 +18480,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18019,8 +18519,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18052,8 +18558,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18085,8 +18597,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18118,8 +18636,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18151,8 +18675,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18184,8 +18714,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18217,8 +18753,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18250,8 +18792,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18283,8 +18831,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18316,8 +18870,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18349,8 +18909,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18382,8 +18948,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18415,8 +18987,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18448,8 +19026,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18481,8 +19065,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18514,8 +19104,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18547,8 +19143,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18580,8 +19182,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18613,8 +19221,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18646,8 +19260,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18679,8 +19299,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18712,8 +19338,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18745,8 +19377,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18778,8 +19416,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18811,8 +19455,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18844,8 +19494,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18877,8 +19533,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18910,8 +19572,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18943,8 +19611,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18976,8 +19650,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19009,8 +19689,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19042,8 +19728,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19075,8 +19767,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19108,8 +19806,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19141,8 +19845,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19174,8 +19884,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19207,8 +19923,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19240,8 +19962,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19270,13 +19998,19 @@
         <v>576918.9359999533</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L501" t="n">
-        <v>1</v>
+        <v>1.009386607376406</v>
       </c>
       <c r="M501" t="inlineStr"/>
     </row>
@@ -19336,7 +20070,7 @@
         <v>472646.0889999533</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19402,7 +20136,7 @@
         <v>463702.6749999533</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19435,7 +20169,7 @@
         <v>446232.5619999533</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19468,7 +20202,7 @@
         <v>410116.2079999533</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19567,7 +20301,7 @@
         <v>441645.2809999533</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19600,7 +20334,7 @@
         <v>441645.2809999533</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19633,7 +20367,7 @@
         <v>417925.5689999533</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19666,7 +20400,7 @@
         <v>409925.5689999533</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19699,7 +20433,7 @@
         <v>475649.3679999533</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19732,7 +20466,7 @@
         <v>475649.3679999533</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19765,7 +20499,7 @@
         <v>488582.9229999533</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19798,7 +20532,7 @@
         <v>411251.2089999532</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19831,7 +20565,7 @@
         <v>508655.8159999533</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19864,7 +20598,7 @@
         <v>614706.9729999532</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19930,7 +20664,7 @@
         <v>614706.9729999532</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20260,7 +20994,7 @@
         <v>595031.2219999532</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20293,7 +21027,7 @@
         <v>601917.3849999531</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20425,7 +21159,7 @@
         <v>485997.733999953</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20458,7 +21192,7 @@
         <v>792696.6669999531</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20491,7 +21225,7 @@
         <v>467457.1789999531</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20524,7 +21258,7 @@
         <v>467457.1789999531</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20557,7 +21291,7 @@
         <v>467457.1789999531</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20623,7 +21357,7 @@
         <v>670555.255999953</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20689,7 +21423,7 @@
         <v>862776.0200582906</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -21085,7 +21819,7 @@
         <v>153372.5983582904</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -24715,7 +25449,7 @@
         <v>1197137.296192745</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24913,7 +25647,7 @@
         <v>1750824.030292745</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25012,7 +25746,7 @@
         <v>2140728.229292745</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25045,7 +25779,7 @@
         <v>1139489.853292745</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25078,7 +25812,7 @@
         <v>1040001.926292745</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25210,7 +25944,7 @@
         <v>87790.93629274471</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25408,7 +26142,7 @@
         <v>-135966.0057072553</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25474,7 +26208,7 @@
         <v>-374141.5197072553</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25639,7 +26373,7 @@
         <v>-1361143.645707255</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -29874,6 +30608,6 @@
       <c r="M822" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-20 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,14 +880,10 @@
         <v>-2931523.9181</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -920,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -959,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -998,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1037,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1076,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1115,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1154,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1193,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1232,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1271,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1310,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1349,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1388,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1427,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1466,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1502,19 +1408,11 @@
         <v>-2625325.0656</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.826</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1543,19 +1441,11 @@
         <v>-2732444.5166</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.827</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1587,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1623,19 +1507,11 @@
         <v>-2597541.5901</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1664,19 +1540,11 @@
         <v>-2575275.0161</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1705,19 +1573,11 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1746,19 +1606,11 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1787,19 +1639,11 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1828,19 +1672,11 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1869,19 +1705,11 @@
         <v>-2481976.0531</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1910,19 +1738,11 @@
         <v>-2484956.9051</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1951,19 +1771,11 @@
         <v>-2441288.2541</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1995,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2034,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2073,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2109,19 +1903,11 @@
         <v>-2266037.801099999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.827</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2153,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2189,19 +1969,11 @@
         <v>-2186937.241099999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.826</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2233,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2269,19 +2035,11 @@
         <v>-2115638.001099999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2310,19 +2068,11 @@
         <v>-2228511.596099999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2351,19 +2101,11 @@
         <v>-2090462.592099999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2392,19 +2134,11 @@
         <v>-2289374.956099999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2433,19 +2167,11 @@
         <v>-2281631.238099999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2474,19 +2200,11 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2515,19 +2233,11 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2556,19 +2266,11 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2597,19 +2299,11 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2638,19 +2332,11 @@
         <v>-2232699.20277855</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2682,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2721,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2760,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2799,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2838,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2877,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2916,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2955,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2994,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3033,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3072,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3111,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3150,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3189,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3228,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3267,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3306,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3345,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3384,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3423,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3462,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3501,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3540,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3579,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3618,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3657,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3696,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3735,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3774,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3813,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3852,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3891,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3927,17 +3421,11 @@
         <v>-2691377.054078551</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3969,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4008,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4047,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4086,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4125,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4164,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4203,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4242,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4281,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4320,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4359,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4398,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4437,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4476,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4515,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4554,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4593,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4632,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4671,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4710,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4749,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4788,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4827,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4866,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4905,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4944,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4983,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5022,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5058,15 +4378,15 @@
         <v>-2755163.820078551</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>3.823</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3.822</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -5097,12 +4417,12 @@
         <v>-2742777.568078551</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>3.823</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3.822</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5136,12 +4456,12 @@
         <v>-2742777.568078551</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>3.823</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5175,12 +4495,12 @@
         <v>-2742777.568078551</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3.823</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5214,12 +4534,12 @@
         <v>-2737558.928078551</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>3.823</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5253,12 +4573,12 @@
         <v>-2665179.688078551</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>3.823</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3.826</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5295,9 +4615,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5331,12 +4649,12 @@
         <v>-2777811.703078551</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>3.823</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3.825</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5370,12 +4688,12 @@
         <v>-2645891.633078551</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>3.823</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3.828</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5412,9 +4730,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5451,9 +4767,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5490,9 +4804,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5529,9 +4841,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5568,9 +4878,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5607,9 +4915,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5646,9 +4952,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5682,12 +4986,12 @@
         <v>-2339662.588078551</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3.823</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5724,9 +5028,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5763,9 +5065,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5802,9 +5102,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5841,9 +5139,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5880,9 +5176,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5919,9 +5213,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5958,9 +5250,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5997,9 +5287,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6036,9 +5324,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6075,9 +5361,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6114,9 +5398,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6153,9 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6192,9 +5472,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6231,9 +5509,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6270,9 +5546,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6309,9 +5583,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6348,9 +5620,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6387,9 +5657,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6426,9 +5694,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6465,9 +5731,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6504,9 +5768,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6543,9 +5805,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6582,9 +5842,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6621,9 +5879,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6660,9 +5916,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6699,9 +5953,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6738,9 +5990,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6777,9 +6027,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6816,9 +6064,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6855,9 +6101,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6894,9 +6138,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6933,9 +6175,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6972,9 +6212,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7011,9 +6249,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7050,9 +6286,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7089,9 +6323,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7128,9 +6360,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7167,9 +6397,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7206,9 +6434,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7245,9 +6471,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7284,9 +6508,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7323,9 +6545,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7362,9 +6582,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7401,9 +6619,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7440,9 +6656,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7479,9 +6693,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7518,9 +6730,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7557,9 +6767,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7596,9 +6804,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7635,9 +6841,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7674,9 +6878,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7713,9 +6915,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7752,9 +6952,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7791,9 +6989,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7830,9 +7026,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7869,9 +7063,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7908,9 +7100,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7947,9 +7137,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7986,9 +7174,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8025,9 +7211,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8064,9 +7248,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8103,9 +7285,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8142,9 +7322,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8181,9 +7359,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8220,9 +7396,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8259,9 +7433,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8298,9 +7470,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8337,9 +7507,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8376,9 +7544,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8415,9 +7581,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8454,9 +7618,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8493,9 +7655,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8532,9 +7692,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8571,9 +7729,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8610,9 +7766,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8649,9 +7803,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8688,9 +7840,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8727,9 +7877,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8766,9 +7914,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8805,9 +7951,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8844,9 +7988,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8883,9 +8025,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8922,9 +8062,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8961,9 +8099,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9000,9 +8136,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9039,9 +8173,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9078,9 +8210,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9117,9 +8247,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9156,9 +8284,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9195,9 +8321,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9234,9 +8358,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9273,9 +8395,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9312,9 +8432,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9351,9 +8469,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9390,9 +8506,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9429,9 +8543,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9468,9 +8580,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9507,9 +8617,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9546,9 +8654,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9585,9 +8691,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9624,9 +8728,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9663,9 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9702,9 +8802,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9741,9 +8839,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9780,9 +8876,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9819,9 +8913,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9858,9 +8950,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9897,9 +8987,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9936,9 +9024,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9975,9 +9061,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10014,9 +9098,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10053,9 +9135,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10092,9 +9172,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10131,9 +9209,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10170,9 +9246,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10209,9 +9283,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10248,9 +9320,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10287,9 +9357,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10326,9 +9394,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10365,9 +9431,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10404,9 +9468,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10443,9 +9505,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10482,9 +9542,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10521,9 +9579,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10560,9 +9616,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10599,9 +9653,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10638,9 +9690,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10677,9 +9727,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10716,9 +9764,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10755,9 +9801,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10794,9 +9838,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10830,14 +9872,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J269" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10871,14 +9909,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J270" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10912,14 +9946,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J271" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10953,14 +9983,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J272" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10994,14 +10020,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J273" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11035,14 +10057,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J274" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11076,14 +10094,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J275" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11117,14 +10131,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J276" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11158,14 +10168,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J277" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11199,14 +10205,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J278" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11240,14 +10242,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J279" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11281,14 +10279,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J280" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11322,14 +10316,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J281" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11363,14 +10353,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J282" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11404,14 +10390,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J283" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11445,14 +10427,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J284" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11486,14 +10464,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J285" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11527,14 +10501,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J286" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11568,14 +10538,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J287" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11609,14 +10575,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J288" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11650,14 +10612,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J289" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11691,14 +10649,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J290" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11732,14 +10686,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J291" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11773,14 +10723,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J292" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11814,14 +10760,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J293" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11855,14 +10797,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J294" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11896,14 +10834,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J295" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11937,14 +10871,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J296" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11978,14 +10908,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J297" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12019,14 +10945,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J298" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12060,14 +10982,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J299" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12101,14 +11019,10 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J300" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12142,14 +11056,10 @@
         <v>-860781.3212999989</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J301" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12183,14 +11093,10 @@
         <v>-1088663.389299999</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J302" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12224,14 +11130,10 @@
         <v>-1088663.389299999</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J303" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12265,14 +11167,10 @@
         <v>-994510.974299999</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J304" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12306,14 +11204,10 @@
         <v>-1335888.129299999</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J305" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12347,14 +11241,10 @@
         <v>-890652.453299999</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J306" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12388,14 +11278,10 @@
         <v>-890652.453299999</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J307" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12429,14 +11315,10 @@
         <v>-890652.453299999</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J308" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12470,14 +11352,10 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J309" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12511,14 +11389,10 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J310" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12552,14 +11426,10 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J311" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12593,14 +11463,10 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J312" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12634,14 +11500,10 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J313" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12675,14 +11537,10 @@
         <v>-1035865.012299999</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J314" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12716,14 +11574,10 @@
         <v>-1035865.012299999</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J315" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12757,14 +11611,10 @@
         <v>-1035865.012299999</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J316" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12798,14 +11648,10 @@
         <v>-1203288.160299999</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J317" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12839,14 +11685,10 @@
         <v>-1169668.915299999</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J318" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12880,14 +11722,10 @@
         <v>-1169668.915299999</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J319" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12921,14 +11759,10 @@
         <v>-962980.748299999</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J320" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12962,14 +11796,10 @@
         <v>-972136.968299999</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J321" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13003,14 +11833,10 @@
         <v>-972136.968299999</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J322" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13044,14 +11870,10 @@
         <v>-835268.6312999991</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J323" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13085,14 +11907,10 @@
         <v>-835268.6312999991</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J324" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13126,14 +11944,10 @@
         <v>-879208.6972999991</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J325" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13167,14 +11981,10 @@
         <v>-1057042.874799999</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J326" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13208,14 +12018,10 @@
         <v>-1057042.874799999</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J327" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13249,14 +12055,10 @@
         <v>-537665.209020301</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J328" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13293,9 +12095,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13332,9 +12132,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13371,9 +12169,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13410,9 +12206,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13449,9 +12243,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13488,9 +12280,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13527,9 +12317,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13566,9 +12354,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13605,9 +12391,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13644,9 +12428,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13683,9 +12465,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13722,9 +12502,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13761,9 +12539,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13800,9 +12576,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13839,9 +12613,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13878,9 +12650,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13917,9 +12687,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13956,9 +12724,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13995,9 +12761,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14034,9 +12798,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14073,9 +12835,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14112,9 +12872,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14151,9 +12909,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14190,9 +12946,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14229,9 +12983,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14268,9 +13020,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14307,9 +13057,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14346,9 +13094,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14385,9 +13131,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14424,9 +13168,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14463,9 +13205,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14502,9 +13242,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14541,9 +13279,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14580,9 +13316,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14619,9 +13353,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14658,9 +13390,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14697,9 +13427,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14736,9 +13464,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14775,9 +13501,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14814,9 +13538,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14853,9 +13575,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14892,9 +13612,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14931,9 +13649,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14970,9 +13686,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15009,9 +13723,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15048,9 +13760,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15087,9 +13797,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15126,9 +13834,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15165,9 +13871,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15204,9 +13908,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15243,9 +13945,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15282,9 +13982,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15321,9 +14019,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15360,9 +14056,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15399,9 +14093,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15438,9 +14130,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15477,9 +14167,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15516,9 +14204,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15555,9 +14241,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15594,9 +14278,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15633,9 +14315,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15672,9 +14352,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15711,9 +14389,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15750,9 +14426,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15789,9 +14463,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15828,9 +14500,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15867,9 +14537,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15906,9 +14574,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15945,9 +14611,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15984,9 +14648,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16023,9 +14685,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16062,9 +14722,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16101,9 +14759,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16140,9 +14796,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16179,9 +14833,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16218,9 +14870,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16257,9 +14907,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16296,9 +14944,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16335,9 +14981,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16374,9 +15018,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16413,9 +15055,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16452,9 +15092,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16491,9 +15129,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16530,9 +15166,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16569,9 +15203,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16608,9 +15240,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16647,9 +15277,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16686,9 +15314,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16725,9 +15351,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16764,9 +15388,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16803,9 +15425,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16842,9 +15462,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16881,9 +15499,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16920,9 +15536,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16959,9 +15573,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16998,9 +15610,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17037,9 +15647,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17076,9 +15684,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17115,9 +15721,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17154,9 +15758,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17193,9 +15795,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17232,9 +15832,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17271,9 +15869,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17310,9 +15906,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17349,9 +15943,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17388,9 +15980,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17427,9 +16017,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17466,9 +16054,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17505,9 +16091,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17544,9 +16128,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17583,9 +16165,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17622,9 +16202,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17661,9 +16239,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17700,9 +16276,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17739,9 +16313,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17778,9 +16350,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17817,9 +16387,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17856,9 +16424,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17895,9 +16461,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17934,9 +16498,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17973,9 +16535,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18012,9 +16572,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18051,9 +16609,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18090,9 +16646,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18129,9 +16683,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18168,9 +16720,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18207,9 +16757,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18246,9 +16794,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18285,9 +16831,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18324,9 +16868,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18363,9 +16905,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18402,9 +16942,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18441,9 +16979,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18480,9 +17016,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18519,9 +17053,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18558,9 +17090,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18597,9 +17127,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18636,9 +17164,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18675,9 +17201,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18714,9 +17238,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18753,9 +17275,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18792,9 +17312,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18831,9 +17349,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18870,9 +17386,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18909,9 +17423,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18948,9 +17460,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18987,9 +17497,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19026,9 +17534,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19065,9 +17571,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19104,9 +17608,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19143,9 +17645,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19182,9 +17682,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19221,9 +17719,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19260,9 +17756,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19299,9 +17793,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19338,9 +17830,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19377,9 +17867,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19416,9 +17904,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19455,9 +17941,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19491,20 +17975,16 @@
         <v>947031.2059420384</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>3.823</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L488" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="inlineStr"/>
     </row>
     <row r="489">
@@ -19530,17 +18010,11 @@
         <v>927552.5039420384</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19569,17 +18043,11 @@
         <v>851328.1059420384</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19608,17 +18076,11 @@
         <v>852186.0209999534</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19650,14 +18112,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19689,14 +18145,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19728,14 +18178,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19767,14 +18211,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19806,14 +18244,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19845,14 +18277,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19884,14 +18310,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19923,14 +18343,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19962,14 +18376,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19998,19 +18406,13 @@
         <v>576918.9359999533</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
-        <v>1.009386607376406</v>
+        <v>1</v>
       </c>
       <c r="M501" t="inlineStr"/>
     </row>
@@ -20070,7 +18472,7 @@
         <v>472646.0889999533</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -20136,7 +18538,7 @@
         <v>463702.6749999533</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -20169,7 +18571,7 @@
         <v>446232.5619999533</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -20202,7 +18604,7 @@
         <v>410116.2079999533</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -20301,7 +18703,7 @@
         <v>441645.2809999533</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -20334,7 +18736,7 @@
         <v>441645.2809999533</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -20367,7 +18769,7 @@
         <v>417925.5689999533</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -20400,7 +18802,7 @@
         <v>409925.5689999533</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -20433,7 +18835,7 @@
         <v>475649.3679999533</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -20466,7 +18868,7 @@
         <v>475649.3679999533</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -20499,7 +18901,7 @@
         <v>488582.9229999533</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20532,7 +18934,7 @@
         <v>411251.2089999532</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20565,7 +18967,7 @@
         <v>508655.8159999533</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -20598,7 +19000,7 @@
         <v>614706.9729999532</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20664,7 +19066,7 @@
         <v>614706.9729999532</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20994,7 +19396,7 @@
         <v>595031.2219999532</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -21027,7 +19429,7 @@
         <v>601917.3849999531</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -21159,7 +19561,7 @@
         <v>485997.733999953</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -21192,7 +19594,7 @@
         <v>792696.6669999531</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -21225,7 +19627,7 @@
         <v>467457.1789999531</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -21258,7 +19660,7 @@
         <v>467457.1789999531</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -21291,7 +19693,7 @@
         <v>467457.1789999531</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -21357,7 +19759,7 @@
         <v>670555.255999953</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21423,7 +19825,7 @@
         <v>862776.0200582906</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -21819,7 +20221,7 @@
         <v>153372.5983582904</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -25944,7 +24346,7 @@
         <v>87790.93629274471</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26142,7 +24544,7 @@
         <v>-135966.0057072553</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -26208,7 +24610,7 @@
         <v>-374141.5197072553</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -30608,6 +29010,6 @@
       <c r="M822" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-20 BackTest TMTG.xlsx
@@ -946,11 +946,17 @@
         <v>-2864780.0166</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +989,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1026,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1063,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1100,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1133,17 @@
         <v>-2461998.116599999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.827</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1176,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1209,17 @@
         <v>-2320573.924599999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.829</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1248,17 @@
         <v>-2235086.013599999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.83</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1287,17 @@
         <v>-2373116.026599999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.831</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1326,17 @@
         <v>-2550591.399599999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.829</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1365,17 @@
         <v>-2632770.113599999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.827</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1404,17 @@
         <v>-2516026.216599999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.826</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1443,17 @@
         <v>-2675016.2916</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.827</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1482,17 @@
         <v>-2625325.0656</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.826</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1521,17 @@
         <v>-2732444.5166</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.827</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1560,17 @@
         <v>-2741574.4901</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.825</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1599,17 @@
         <v>-2597541.5901</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.822</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1638,17 @@
         <v>-2575275.0161</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1677,17 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.824</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1716,17 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1755,17 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1794,17 @@
         <v>-2620960.0781</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1833,17 @@
         <v>-2481976.0531</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1872,17 @@
         <v>-2484956.9051</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.824</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1911,17 @@
         <v>-2441288.2541</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1950,17 @@
         <v>-2360245.179099999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.824</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1989,17 @@
         <v>-2244043.493099999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.825</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2028,17 @@
         <v>-2225253.524099999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.826</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2067,17 @@
         <v>-2266037.801099999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.827</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2106,17 @@
         <v>-2157888.735099999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.825</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2145,17 @@
         <v>-2186937.241099999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.826</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2184,17 @@
         <v>-2257444.143099999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.825</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2223,17 @@
         <v>-2115638.001099999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2262,17 @@
         <v>-2228511.596099999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.824</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2301,17 @@
         <v>-2090462.592099999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2340,17 @@
         <v>-2289374.956099999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.824</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2379,17 @@
         <v>-2281631.238099999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2418,17 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.824</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2457,17 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2496,17 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2535,17 @@
         <v>-2307442.919099999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2574,17 @@
         <v>-2232699.20277855</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2613,17 @@
         <v>-2234387.91877855</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.879</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2656,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2693,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2726,17 @@
         <v>-2249409.434778551</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.878</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2769,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2802,17 @@
         <v>-2327394.22107855</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.878</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2845,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2878,17 @@
         <v>-2504356.80307855</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.872</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2921,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2954,17 @@
         <v>-2459043.33207855</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.863</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2993,17 @@
         <v>-2448644.085078551</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.866</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3032,17 @@
         <v>-2517314.963078551</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.871</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3075,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3108,17 @@
         <v>-2371531.728078551</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.871</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3147,17 @@
         <v>-2342150.899078551</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.867</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3186,17 @@
         <v>-2247537.313078551</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.872</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3229,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3266,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3303,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3336,17 @@
         <v>-2506239.215078551</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3.871</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3379,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3412,17 @@
         <v>-2363914.934078551</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3455,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3488,17 @@
         <v>-2488303.990078551</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.867</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3527,17 @@
         <v>-2434001.139078551</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.869</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3566,17 @@
         <v>-2321581.318078551</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3.872</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3609,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3646,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3683,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3720,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3757,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3794,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3827,15 @@
         <v>-2691377.054078551</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3864,17 @@
         <v>-2736263.774078551</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.86</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3907,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3940,17 @@
         <v>-2771670.177078551</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3.859</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3979,17 @@
         <v>-2740751.567078551</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.854</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +4018,17 @@
         <v>-2678808.653078551</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3.857</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4061,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4098,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4135,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +4168,17 @@
         <v>-2547630.417078551</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3.854</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4211,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4248,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4285,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4318,17 @@
         <v>-2736947.037078551</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.852</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4357,17 @@
         <v>-2706795.554078551</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.847</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4400,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4437,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4470,17 @@
         <v>-2790491.048078551</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.848</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4509,17 @@
         <v>-2739196.772078551</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3.845</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4552,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4589,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4626,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4663,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4700,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4737,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4774,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4811,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4848,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4885,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4386,7 +4926,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -4612,9 +5152,11 @@
         <v>-2779835.677078551</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3.83</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5210,9 +5752,11 @@
         <v>-2179166.659078551</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3.828</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5284,9 +5828,11 @@
         <v>-2147052.47307855</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3.83</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5358,9 +5904,11 @@
         <v>-2214616.00407855</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>3.828</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5395,9 +5943,11 @@
         <v>-2194522.32107855</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>3.828</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5432,9 +5982,11 @@
         <v>-2156497.88307855</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3.831</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -6135,9 +6687,11 @@
         <v>-2011308.49707855</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3.833</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6172,9 +6726,11 @@
         <v>-2284329.678078549</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3.837</v>
+      </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6320,9 +6876,11 @@
         <v>-2316998.07407855</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.833</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6357,9 +6915,11 @@
         <v>-2318028.69057855</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3.831</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6394,9 +6954,11 @@
         <v>-2364336.00167855</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3.827</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6431,9 +6993,11 @@
         <v>-2308014.96667855</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3.822</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6468,9 +7032,11 @@
         <v>-2298875.53767855</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3.827</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6505,9 +7071,11 @@
         <v>-2337088.514678549</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3.829</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6542,9 +7110,11 @@
         <v>-2393092.991678549</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>3.824</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -6579,9 +7149,11 @@
         <v>-2392180.63467855</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3.823</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6616,9 +7188,11 @@
         <v>-2364564.91267855</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3.828</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6653,9 +7227,11 @@
         <v>-2321304.33167855</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3.832</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -6690,9 +7266,11 @@
         <v>-2265371.65867855</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3.836</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6727,9 +7305,11 @@
         <v>-2242277.84867855</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>3.838</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -6764,9 +7344,11 @@
         <v>-2180223.15567855</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3.84</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6801,9 +7383,11 @@
         <v>-2256998.22467855</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3.843</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -6838,9 +7422,11 @@
         <v>-2238127.85667855</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3.837</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -6875,9 +7461,11 @@
         <v>-2317350.83067855</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3.841</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -6912,9 +7500,11 @@
         <v>-2157696.674399999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3.835</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7393,18 +7983,16 @@
         <v>-1169146.547099999</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
@@ -7430,15 +8018,11 @@
         <v>-1295194.051099999</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7467,15 +8051,11 @@
         <v>-1316119.104099999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7504,15 +8084,11 @@
         <v>-1453500.137099999</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7545,11 +8121,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7582,11 +8154,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7619,11 +8187,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7656,11 +8220,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7689,15 +8249,11 @@
         <v>-1625126.286899999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7726,15 +8282,11 @@
         <v>-1653801.320899999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7767,11 +8319,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7804,11 +8352,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7841,11 +8385,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7878,11 +8418,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7915,11 +8451,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7952,11 +8484,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7989,11 +8517,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8026,11 +8550,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8063,11 +8583,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8100,11 +8616,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8137,11 +8649,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8174,11 +8682,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8211,11 +8715,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8248,11 +8748,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8285,11 +8781,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8322,11 +8814,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8359,11 +8847,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8396,11 +8880,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8433,11 +8913,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8946,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8507,11 +8979,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8544,11 +9012,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8581,11 +9045,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8618,11 +9078,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8655,11 +9111,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8692,11 +9144,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8729,11 +9177,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8766,11 +9210,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8803,11 +9243,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8840,11 +9276,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8877,11 +9309,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8914,11 +9342,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8951,11 +9375,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8988,11 +9408,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9025,11 +9441,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9062,11 +9474,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9099,11 +9507,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9136,11 +9540,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9173,11 +9573,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9210,11 +9606,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9247,11 +9639,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9284,11 +9672,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9321,11 +9705,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9358,11 +9738,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9395,11 +9771,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9432,11 +9804,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9469,11 +9837,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9506,11 +9870,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9543,11 +9903,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9580,11 +9936,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9617,11 +9969,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9654,11 +10002,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +10035,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9728,11 +10068,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9765,11 +10101,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9802,11 +10134,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9839,11 +10167,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9876,11 +10200,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9913,11 +10233,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9950,11 +10266,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9987,11 +10299,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10020,15 +10328,15 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J273" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10057,13 +10365,17 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J274" t="n">
+        <v>3.823</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L274" t="n">
@@ -10094,13 +10406,17 @@
         <v>-952156.3743999989</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J275" t="n">
+        <v>3.823</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -10135,11 +10451,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10172,11 +10484,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10209,11 +10517,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10246,11 +10550,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10283,11 +10583,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10320,11 +10616,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10357,11 +10649,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10394,11 +10682,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10431,11 +10715,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10468,11 +10748,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10505,11 +10781,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10542,11 +10814,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10579,11 +10847,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10616,11 +10880,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10653,11 +10913,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10690,11 +10946,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10727,11 +10979,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10764,11 +11012,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10801,11 +11045,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10838,11 +11078,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10875,11 +11111,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +11144,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10949,11 +11177,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10986,11 +11210,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11023,11 +11243,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11060,11 +11276,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11097,11 +11309,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11134,11 +11342,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11171,11 +11375,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11208,11 +11408,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11245,11 +11441,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11282,11 +11474,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11319,11 +11507,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11356,11 +11540,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11393,11 +11573,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11430,11 +11606,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11467,11 +11639,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11500,15 +11668,15 @@
         <v>-1220696.995299999</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J313" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11537,13 +11705,17 @@
         <v>-1035865.012299999</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J314" t="n">
+        <v>3.823</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L314" t="n">
@@ -11577,10 +11749,12 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>3.823</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L315" t="n">
@@ -11611,15 +11785,15 @@
         <v>-1035865.012299999</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="J316" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11648,13 +11822,17 @@
         <v>-1203288.160299999</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="J317" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L317" t="n">
@@ -11685,10 +11863,14 @@
         <v>-1169668.915299999</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>3.822</v>
+      </c>
+      <c r="J318" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11722,10 +11904,14 @@
         <v>-1169668.915299999</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J319" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11759,10 +11945,14 @@
         <v>-962980.748299999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>3.823</v>
+      </c>
+      <c r="J320" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11799,7 +11989,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11836,7 +12028,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11873,7 +12067,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11910,7 +12106,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11947,7 +12145,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11984,7 +12184,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12021,7 +12223,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12058,7 +12262,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12095,7 +12301,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12132,7 +12340,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12169,7 +12379,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12206,7 +12418,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12243,7 +12457,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12280,7 +12496,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12317,7 +12535,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12354,7 +12574,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12391,7 +12613,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12428,7 +12652,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12465,7 +12691,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12502,7 +12730,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12539,7 +12769,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12576,7 +12808,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12613,7 +12847,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12650,7 +12886,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12687,7 +12925,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12724,7 +12964,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12761,7 +13003,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12798,7 +13042,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12835,7 +13081,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12872,7 +13120,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12909,7 +13159,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12946,7 +13198,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12983,7 +13237,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13020,7 +13276,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13057,7 +13315,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13094,7 +13354,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13131,7 +13393,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13168,7 +13432,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13205,7 +13471,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13242,7 +13510,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13279,7 +13549,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13316,7 +13588,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13353,7 +13627,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13390,7 +13666,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13427,7 +13705,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13464,7 +13744,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13501,7 +13783,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13538,7 +13822,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13575,7 +13861,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13612,7 +13900,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13649,7 +13939,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13686,7 +13978,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13723,7 +14017,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13760,7 +14056,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13797,7 +14095,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13834,7 +14134,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13871,7 +14173,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13908,7 +14212,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13945,7 +14251,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13982,7 +14290,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14019,7 +14329,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14056,7 +14368,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14093,7 +14407,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14130,7 +14446,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14167,7 +14485,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14204,7 +14524,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14241,7 +14563,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14278,7 +14602,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14315,7 +14641,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14352,7 +14680,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14389,7 +14719,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14426,7 +14758,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14463,7 +14797,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14500,7 +14836,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14537,7 +14875,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14574,7 +14914,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14611,7 +14953,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14648,7 +14992,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14685,7 +15031,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14722,7 +15070,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14759,7 +15109,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14796,7 +15148,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14833,7 +15187,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14870,7 +15226,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14907,7 +15265,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14944,7 +15304,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14981,7 +15343,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15018,7 +15382,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15055,7 +15421,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15092,7 +15460,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15129,7 +15499,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15166,7 +15538,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15203,7 +15577,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15240,7 +15616,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15277,7 +15655,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15314,7 +15694,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15351,7 +15733,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15388,7 +15772,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15425,7 +15811,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15462,7 +15850,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15499,7 +15889,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15536,7 +15928,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15573,7 +15967,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15607,17 +16003,19 @@
         <v>440567.3748036601</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>3.824</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L424" t="n">
-        <v>1</v>
+        <v>1.014089958158996</v>
       </c>
       <c r="M424" t="inlineStr"/>
     </row>
@@ -15644,15 +16042,11 @@
         <v>440567.3748036601</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15681,15 +16075,11 @@
         <v>363595.1848036601</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15718,15 +16108,11 @@
         <v>213805.6068036601</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15759,11 +16145,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +16178,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15833,11 +16211,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15866,15 +16240,11 @@
         <v>319008.5456420387</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15907,11 +16277,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15944,11 +16310,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15981,11 +16343,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16018,11 +16376,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16055,11 +16409,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16092,11 +16442,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16129,11 +16475,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16166,11 +16508,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16203,11 +16541,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16240,11 +16574,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16277,11 +16607,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16314,11 +16640,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16351,11 +16673,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16388,11 +16706,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16425,11 +16739,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16462,11 +16772,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16499,11 +16805,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16536,11 +16838,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16573,11 +16871,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16610,11 +16904,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16647,11 +16937,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16684,11 +16970,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16721,11 +17003,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16758,11 +17036,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16795,11 +17069,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16832,11 +17102,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16869,11 +17135,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16906,11 +17168,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16943,11 +17201,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16980,11 +17234,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17017,11 +17267,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17054,11 +17300,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17091,11 +17333,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17128,11 +17366,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17165,11 +17399,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17202,11 +17432,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17239,11 +17465,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17276,11 +17498,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17313,11 +17531,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17350,11 +17564,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17387,11 +17597,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17424,11 +17630,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17461,11 +17663,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17498,11 +17696,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17535,11 +17729,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17572,11 +17762,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17609,11 +17795,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17646,11 +17828,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17683,11 +17861,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17720,11 +17894,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17757,11 +17927,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17794,11 +17960,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17831,11 +17993,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17868,11 +18026,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17905,11 +18059,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17942,11 +18092,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17975,16 +18121,14 @@
         <v>947031.2059420384</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="n">
+        <v>1</v>
+      </c>
       <c r="M488" t="inlineStr"/>
     </row>
     <row r="489">
@@ -18010,7 +18154,7 @@
         <v>927552.5039420384</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18043,7 +18187,7 @@
         <v>851328.1059420384</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18076,7 +18220,7 @@
         <v>852186.0209999534</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18703,7 +18847,7 @@
         <v>441645.2809999533</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18736,7 +18880,7 @@
         <v>441645.2809999533</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18769,7 +18913,7 @@
         <v>417925.5689999533</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18802,7 +18946,7 @@
         <v>409925.5689999533</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18835,7 +18979,7 @@
         <v>475649.3679999533</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18868,7 +19012,7 @@
         <v>475649.3679999533</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18901,7 +19045,7 @@
         <v>488582.9229999533</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18934,7 +19078,7 @@
         <v>411251.2089999532</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18967,7 +19111,7 @@
         <v>508655.8159999533</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19000,7 +19144,7 @@
         <v>614706.9729999532</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19033,7 +19177,7 @@
         <v>614706.9729999532</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19066,7 +19210,7 @@
         <v>614706.9729999532</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19099,7 +19243,7 @@
         <v>614706.9729999532</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19132,7 +19276,7 @@
         <v>614706.9729999532</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19165,7 +19309,7 @@
         <v>586441.9039999532</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19198,7 +19342,7 @@
         <v>508582.6749999532</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19231,7 +19375,7 @@
         <v>521141.5119999532</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19264,7 +19408,7 @@
         <v>489119.9979999532</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19297,7 +19441,7 @@
         <v>489119.9979999532</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19330,7 +19474,7 @@
         <v>489119.9979999532</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19363,7 +19507,7 @@
         <v>489119.9979999532</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19396,7 +19540,7 @@
         <v>595031.2219999532</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19429,7 +19573,7 @@
         <v>601917.3849999531</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19462,7 +19606,7 @@
         <v>465763.2319999531</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19495,7 +19639,7 @@
         <v>274680.3569999531</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19528,7 +19672,7 @@
         <v>571691.461999953</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19561,7 +19705,7 @@
         <v>485997.733999953</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19594,7 +19738,7 @@
         <v>792696.6669999531</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19627,7 +19771,7 @@
         <v>467457.1789999531</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19660,7 +19804,7 @@
         <v>467457.1789999531</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19693,7 +19837,7 @@
         <v>467457.1789999531</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19726,7 +19870,7 @@
         <v>640653.353999953</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19759,7 +19903,7 @@
         <v>670555.255999953</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19792,7 +19936,7 @@
         <v>670555.255999953</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19825,7 +19969,7 @@
         <v>862776.0200582906</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19858,7 +20002,7 @@
         <v>843558.3450582905</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19891,7 +20035,7 @@
         <v>782572.5610582905</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19924,7 +20068,7 @@
         <v>677992.0550582905</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19957,7 +20101,7 @@
         <v>588444.2273582905</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19990,7 +20134,7 @@
         <v>588444.2273582905</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20023,7 +20167,7 @@
         <v>588444.2273582905</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20056,7 +20200,7 @@
         <v>548301.7563582904</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20089,7 +20233,7 @@
         <v>484512.1833582905</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20122,7 +20266,7 @@
         <v>466465.6453582905</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20155,7 +20299,7 @@
         <v>328021.5313582905</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20188,7 +20332,7 @@
         <v>158435.4103582904</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20221,7 +20365,7 @@
         <v>153372.5983582904</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -24874,7 +25018,7 @@
         <v>-163954.9440164673</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24907,7 +25051,7 @@
         <v>-163954.9440164673</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24973,7 +25117,7 @@
         <v>-1478481.536016467</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25105,7 +25249,7 @@
         <v>-1366911.588816467</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25171,7 +25315,7 @@
         <v>-1393697.998816467</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25237,7 +25381,7 @@
         <v>-1223449.382816467</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25270,7 +25414,7 @@
         <v>-1223449.382816467</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25303,7 +25447,7 @@
         <v>-1943933.089916467</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25336,7 +25480,7 @@
         <v>-2064096.853116467</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
